--- a/PythonResources/Data/Consumption/Sympheny/futu_CE_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CE_coo.xlsx
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5.799804052703551</v>
+        <v>5.79980405270355</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4.080505442036118</v>
+        <v>4.080505442036117</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.853712711839074</v>
+        <v>1.853712711839073</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.5036337878083621</v>
+        <v>0.503633787808362</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>6.473473261077647</v>
+        <v>6.473473261077646</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.251105610493351</v>
+        <v>3.25110561049335</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.031634967126222</v>
+        <v>3.031634967126221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -895,7 +895,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>12.20050337881601</v>
+        <v>12.200503378816</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>9.328999203432918</v>
+        <v>9.328999203432916</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.9338902073829284</v>
+        <v>0.9338902073829283</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>9.528205449831807</v>
+        <v>9.528205449831805</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>3.173644590406848</v>
+        <v>3.173644590406847</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>1.809619441394878</v>
+        <v>1.809619441394877</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>4.514247062402445</v>
+        <v>4.514247062402444</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>0.4466555026139006</v>
+        <v>0.4466555026139005</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>6.58984034075956</v>
+        <v>6.589840340759559</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>6.709744787878114</v>
+        <v>6.709744787878113</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>1.96838672013064</v>
+        <v>1.968386720130639</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>0.1907915907368451</v>
+        <v>0.190791590736845</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>5.116633481256057</v>
+        <v>5.116633481256056</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>3.0686214114184</v>
+        <v>3.068621411418399</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>5.962879915314193</v>
+        <v>5.962879915314192</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>5.238493884486637</v>
+        <v>5.238493884486636</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>4.179714091617524</v>
+        <v>4.179714091617523</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>0.8695370825715928</v>
+        <v>0.8695370825715927</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>61.75126943720397</v>
+        <v>61.75126943720396</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>4.423816769642062</v>
+        <v>4.423816769642061</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>3.965742926290876</v>
+        <v>3.965742926290875</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>72.019716647197</v>
+        <v>72.01971664719697</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>9.065197169402682</v>
+        <v>9.06519716940268</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>4.038527997955537</v>
+        <v>4.038527997955536</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>8.561898332484406</v>
+        <v>8.561898332484404</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>9.806291766286398</v>
+        <v>9.806291766286396</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>3.904942994752271</v>
+        <v>3.90494299475227</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>1.870920964016152</v>
+        <v>1.870920964016151</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>1.735779753597594</v>
+        <v>1.735779753597593</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>1.987338744987753</v>
+        <v>1.987338744987752</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>2.253800398693842</v>
+        <v>2.253800398693841</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>1.268915830583839</v>
+        <v>1.268915830583838</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>10.78823653880759</v>
+        <v>10.78823653880758</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>0.8866630110939111</v>
+        <v>0.886663011093911</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>0.1371414202574219</v>
+        <v>0.1371414202574218</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>5.818413770587508</v>
+        <v>5.818413770587507</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>6.916442809238303</v>
+        <v>6.916442809238302</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>6.479047472232985</v>
+        <v>6.479047472232984</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>5.900298404931566</v>
+        <v>5.900298404931565</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>4.412403118041395</v>
+        <v>4.412403118041394</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>3.068066334871175</v>
+        <v>3.068066334871174</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>5.151271840386479</v>
+        <v>5.151271840386478</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>2.026693496343353</v>
+        <v>2.026693496343352</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>4.281038421027027</v>
+        <v>4.281038421027026</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>31.06647964826787</v>
+        <v>31.06647964826786</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>2.837826503117397</v>
+        <v>2.837826503117396</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>27.73237163048901</v>
+        <v>27.732371630489</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>43.33900816554528</v>
+        <v>43.33900816554527</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>37.64137307298466</v>
+        <v>37.64137307298465</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>13.36864350897472</v>
+        <v>13.36864350897471</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>3.496266187046143</v>
+        <v>3.496266187046142</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>39.77612596427699</v>
+        <v>39.77612596427698</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>7.336648357541979</v>
+        <v>7.336648357541978</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>6.330307472549501</v>
+        <v>6.3303074725495</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>4.093164645551094</v>
+        <v>4.093164645551093</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>2.46153852917024</v>
+        <v>2.461538529170239</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>30.89415563596123</v>
+        <v>30.89415563596122</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>30.54019733059176</v>
+        <v>30.54019733059175</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>3.374138884020654</v>
+        <v>3.374138884020653</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>39.74945649975881</v>
+        <v>39.7494564997588</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>25.58225302463966</v>
+        <v>25.58225302463965</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>5.027209887513474</v>
+        <v>5.027209887513473</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>63.00193544113933</v>
+        <v>63.00193544113932</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>67.75875681609969</v>
+        <v>67.75875681609968</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>74.76338909693678</v>
+        <v>74.76338909693676</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>62.29034430571765</v>
+        <v>62.29034430571764</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>50.12473103405427</v>
+        <v>50.12473103405426</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>3.671688927365861</v>
+        <v>3.67168892736586</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>3.375541228940648</v>
+        <v>3.375541228940647</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>6.13763026274991</v>
+        <v>6.137630262749909</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>6.488975253667638</v>
+        <v>6.488975253667637</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>5.955556363129085</v>
+        <v>5.955556363129084</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>46.21062370792307</v>
+        <v>46.21062370792306</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>3.429141870414537</v>
+        <v>3.429141870414536</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>59.1518905133491</v>
+        <v>59.15189051334909</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>65.37638234282161</v>
+        <v>65.3763823428216</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>7.372603484849107</v>
+        <v>7.372603484849106</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>6.003305255174023</v>
+        <v>6.003305255174022</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>3.666027967183078</v>
+        <v>3.666027967183077</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>0.731878098859895</v>
+        <v>0.7318780988598949</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>3.03445079366568</v>
+        <v>3.034450793665679</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>2.587896986702195</v>
+        <v>2.587896986702194</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>3.175485662671718</v>
+        <v>3.175485662671717</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>0.6570630120317384</v>
+        <v>0.6570630120317383</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>12.72616438589016</v>
+        <v>12.72616438589015</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>0.0353316772865842</v>
+        <v>0.0353316772865841</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>0.5996636130618246</v>
+        <v>0.5996636130618245</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>8.386093837829728</v>
+        <v>8.386093837829726</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>53.01326849820436</v>
+        <v>53.01326849820435</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>3.779110599734713</v>
+        <v>3.779110599734712</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>3.967072589593283</v>
+        <v>3.967072589593282</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>0.6247234142072634</v>
+        <v>0.6247234142072633</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>83.88707152281471</v>
+        <v>83.88707152281469</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>5.697164420472537</v>
+        <v>5.697164420472536</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>3.672353319410506</v>
+        <v>3.672353319410505</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>3.530907271737226</v>
+        <v>3.530907271737225</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>3.778915707494003</v>
+        <v>3.778915707494002</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>3.783825526604696</v>
+        <v>3.783825526604695</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>0.8235149650864472</v>
+        <v>0.8235149650864471</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>1143</v>
       </c>
       <c r="B1143">
-        <v>5.133568005083024</v>
+        <v>5.133568005083023</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>4.208194442083595</v>
+        <v>4.208194442083594</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>3.941680328661586</v>
+        <v>3.941680328661585</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>5.130837755286856</v>
+        <v>5.130837755286855</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>6.145788774324164</v>
+        <v>6.145788774324163</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>3.983290261659685</v>
+        <v>3.983290261659684</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>0.6613441058431918</v>
+        <v>0.6613441058431917</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>5.488354822278793</v>
+        <v>5.488354822278792</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>2.960551758983067</v>
+        <v>2.960551758983066</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>0.3042839366005284</v>
+        <v>0.3042839366005283</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>8.69325368053264</v>
+        <v>8.693253680532639</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>2.980746111973066</v>
+        <v>2.980746111973065</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>0.2244689992386014</v>
+        <v>0.2244689992386013</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>9.867845476536441</v>
+        <v>9.86784547653644</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>3.466960929527553</v>
+        <v>3.466960929527552</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>77.02273234818482</v>
+        <v>77.0227323481848</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>105.9723188542564</v>
+        <v>105.9723188542563</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>6.378331558299744</v>
+        <v>6.378331558299743</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>4.304360428141621</v>
+        <v>4.30436042814162</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>3.920381390926873</v>
+        <v>3.920381390926872</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>67.07299989273601</v>
+        <v>67.07299989273599</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11055,7 +11055,7 @@
         <v>1339</v>
       </c>
       <c r="B1339">
-        <v>116.5396106023724</v>
+        <v>116.5396106023723</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>26.19916169960102</v>
+        <v>26.19916169960101</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>7.153807784084017</v>
+        <v>7.153807784084016</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>5.557779834485201</v>
+        <v>5.557779834485199</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>5.076638369680981</v>
+        <v>5.07663836968098</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11135,7 +11135,7 @@
         <v>1349</v>
       </c>
       <c r="B1349">
-        <v>4.756705611900092</v>
+        <v>4.756705611900091</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>1352</v>
       </c>
       <c r="B1352">
-        <v>5.103864962243659</v>
+        <v>5.103864962243658</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>81.7746447832476</v>
+        <v>81.77464478324758</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>55.86329642787434</v>
+        <v>55.86329642787433</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>4.001187816919695</v>
+        <v>4.001187816919694</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>2.735477890427773</v>
+        <v>2.735477890427772</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>0.0263934209068673</v>
+        <v>0.0263934209068672</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>3.13702595026819</v>
+        <v>3.137025950268189</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>2.063031667498012</v>
+        <v>2.063031667498011</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>2.330336779653368</v>
+        <v>2.330336779653367</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>48.92782891216134</v>
+        <v>48.92782891216133</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>7.449909177285121</v>
+        <v>7.44990917728512</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>4.483245714861808</v>
+        <v>4.483245714861807</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>6.636678954158415</v>
+        <v>6.636678954158414</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>63.17395934870238</v>
+        <v>63.17395934870237</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>98.03771355353911</v>
+        <v>98.03771355353909</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>4.634870998920913</v>
+        <v>4.634870998920912</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>4.264883466162898</v>
+        <v>4.264883466162897</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>66.14118052531227</v>
+        <v>66.14118052531225</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>5.996842745700502</v>
+        <v>5.996842745700501</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>9.654149797986133</v>
+        <v>9.654149797986131</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>6.166037931598393</v>
+        <v>6.166037931598392</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>4.943703984183543</v>
+        <v>4.943703984183542</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>4.08253642433404</v>
+        <v>4.082536424334039</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>90.5359448698208</v>
+        <v>90.53594486982078</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>28.57373755254032</v>
+        <v>28.57373755254031</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>7.733519589747438</v>
+        <v>7.733519589747436</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>4.583126669405905</v>
+        <v>4.583126669405904</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>3.889811737026185</v>
+        <v>3.889811737026184</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>45.79202741269268</v>
+        <v>45.79202741269267</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>5.953429839672558</v>
+        <v>5.953429839672557</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>4.590647165328993</v>
+        <v>4.590647165328992</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>63.87251761503479</v>
+        <v>63.87251761503478</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>88.69592766068939</v>
+        <v>88.69592766068938</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>8.990472846675198</v>
+        <v>8.990472846675194</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>6.238133993251161</v>
+        <v>6.238133993251159</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>5.28935489789112</v>
+        <v>5.289354897891119</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>89.3802778430675</v>
+        <v>89.38027784306749</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>132.7262757528849</v>
+        <v>132.7262757528848</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>8.490355911330772</v>
+        <v>8.49035591133077</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>244.7487238221622</v>
+        <v>244.7487238221621</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>76.61682895963885</v>
+        <v>76.61682895963884</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>8.50897178370654</v>
+        <v>8.508971783706539</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>82.6319068784359</v>
+        <v>82.63190687843588</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>7.114525128203927</v>
+        <v>7.114525128203926</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>6.338226838156209</v>
+        <v>6.338226838156208</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>6.417305317305083</v>
+        <v>6.417305317305082</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>53.13524466449521</v>
+        <v>53.1352446644952</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>8.672933306996018</v>
+        <v>8.672933306996017</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>74.44019035550103</v>
+        <v>74.44019035550102</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>9.39979637424234</v>
+        <v>9.399796374242339</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>5.474165494870965</v>
+        <v>5.474165494870964</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>4.596965483851494</v>
+        <v>4.596965483851493</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>1.693575179462051</v>
+        <v>1.69357517946205</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>8.57418888193985</v>
+        <v>8.574188881939849</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>42.03277589267973</v>
+        <v>42.03277589267972</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>41.27744390473785</v>
+        <v>41.27744390473784</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>25.84407096773816</v>
+        <v>25.84407096773815</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>9.522991716054023</v>
+        <v>9.522991716054021</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>4.544631788477736</v>
+        <v>4.544631788477735</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>51.79283277190692</v>
+        <v>51.79283277190691</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>68.53844300735433</v>
+        <v>68.53844300735432</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>6.43788124878742</v>
+        <v>6.437881248787419</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>42.38875462978974</v>
+        <v>42.38875462978973</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>128.9564443683763</v>
+        <v>128.9564443683762</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>9.856216417722358</v>
+        <v>9.856216417722356</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>7.689419139062795</v>
+        <v>7.689419139062793</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>6.384334825455682</v>
+        <v>6.384334825455681</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>4.817138911569331</v>
+        <v>4.81713891156933</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>24.97038517154328</v>
+        <v>24.97038517154327</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15671,7 +15671,7 @@
         <v>1916</v>
       </c>
       <c r="B1916">
-        <v>95.43887681110576</v>
+        <v>95.43887681110574</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>13.42033244806342</v>
+        <v>13.42033244806341</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>2.078534246230081</v>
+        <v>2.07853424623008</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>31.33910312056181</v>
+        <v>31.3391031205618</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>2.014495000501152</v>
+        <v>2.014495000501151</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>20.86851895378329</v>
+        <v>20.86851895378328</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>7.994972073260726</v>
+        <v>7.994972073260725</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>9.778258056083247</v>
+        <v>9.778258056083246</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>8.570116073715573</v>
+        <v>8.570116073715571</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>7.627392119085314</v>
+        <v>7.627392119085313</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>7.614050060050257</v>
+        <v>7.614050060050256</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>7.778096280869907</v>
+        <v>7.778096280869905</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>2.913629620338193</v>
+        <v>2.913629620338192</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>2.663267237998888</v>
+        <v>2.663267237998887</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>101.5623323999998</v>
+        <v>101.5623323999997</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>10.05156584925247</v>
+        <v>10.05156584925246</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>9.049596998014739</v>
+        <v>9.049596998014737</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>8.126272001575551</v>
+        <v>8.126272001575549</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>59.847450662956</v>
+        <v>59.84745066295599</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16863,7 +16863,7 @@
         <v>2065</v>
       </c>
       <c r="B2065">
-        <v>18.08418582813963</v>
+        <v>18.08418582813962</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>8.601781520229816</v>
+        <v>8.601781520229814</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>7.811178432785037</v>
+        <v>7.811178432785036</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>5.392160115258979</v>
+        <v>5.392160115258978</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>2.193430109297914</v>
+        <v>2.193430109297913</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>60.55052808470458</v>
+        <v>60.55052808470457</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>22.75508463598526</v>
+        <v>22.75508463598525</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>87.23112930235612</v>
+        <v>87.23112930235611</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>7.120672293239849</v>
+        <v>7.120672293239847</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>71.33349081017145</v>
+        <v>71.33349081017144</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>7.698258161588821</v>
+        <v>7.69825816158882</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18031,7 +18031,7 @@
         <v>2211</v>
       </c>
       <c r="B2211">
-        <v>6.909607806474644</v>
+        <v>6.909607806474643</v>
       </c>
     </row>
     <row r="2212" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>47.71979595222005</v>
+        <v>47.71979595222004</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>4.589087148190199</v>
+        <v>4.589087148190198</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>4.483616449725716</v>
+        <v>4.483616449725715</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>34.51269613046586</v>
+        <v>34.51269613046585</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>0.9894119295152428</v>
+        <v>0.9894119295152427</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18719,7 +18719,7 @@
         <v>2297</v>
       </c>
       <c r="B2297">
-        <v>4.502628261074715</v>
+        <v>4.502628261074714</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>7.162850197910874</v>
+        <v>7.162850197910872</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>84.57728312596605</v>
+        <v>84.57728312596603</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18919,7 +18919,7 @@
         <v>2322</v>
       </c>
       <c r="B2322">
-        <v>424.4946429544844</v>
+        <v>424.4946429544843</v>
       </c>
     </row>
     <row r="2323" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>200.0485911782101</v>
+        <v>200.04859117821</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>9.225307739244148</v>
+        <v>9.225307739244146</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19103,7 +19103,7 @@
         <v>2345</v>
       </c>
       <c r="B2345">
-        <v>262.4186801135475</v>
+        <v>262.4186801135474</v>
       </c>
     </row>
     <row r="2346" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>383.4264605634819</v>
+        <v>383.4264605634818</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>147.194430946895</v>
+        <v>147.1944309468949</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>56.01419870568107</v>
+        <v>56.01419870568106</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>15.58972926683591</v>
+        <v>15.5897292668359</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>202.6369945916671</v>
+        <v>202.636994591667</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>700.647159467572</v>
+        <v>700.6471594675719</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>215.1963546651928</v>
+        <v>215.1963546651927</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19999,7 +19999,7 @@
         <v>2457</v>
       </c>
       <c r="B2457">
-        <v>40.6687881102252</v>
+        <v>40.66878811022519</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>80.83374021362535</v>
+        <v>80.83374021362533</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>316.7023236430372</v>
+        <v>316.7023236430371</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>341.1768619242693</v>
+        <v>341.1768619242692</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>424.2843937913487</v>
+        <v>424.2843937913486</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>60.93884721093085</v>
+        <v>60.93884721093084</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>39.85314503323719</v>
+        <v>39.85314503323718</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>234.4682020853763</v>
+        <v>234.4682020853762</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>521.2783934549032</v>
+        <v>521.278393454903</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>263.2038174261212</v>
+        <v>263.2038174261211</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21119,7 +21119,7 @@
         <v>2597</v>
       </c>
       <c r="B2597">
-        <v>44.11153463132543</v>
+        <v>44.11153463132542</v>
       </c>
     </row>
     <row r="2598" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>173.8920302847889</v>
+        <v>173.8920302847888</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>232.5958591406806</v>
+        <v>232.5958591406805</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>456.3082954929778</v>
+        <v>456.3082954929777</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>6.35566896102214</v>
+        <v>6.355668961022138</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>302.444798604513</v>
+        <v>302.4447986045129</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21687,7 +21687,7 @@
         <v>2668</v>
       </c>
       <c r="B2668">
-        <v>7.09018821608245</v>
+        <v>7.090188216082449</v>
       </c>
     </row>
     <row r="2669" spans="1:2">
@@ -21711,7 +21711,7 @@
         <v>2671</v>
       </c>
       <c r="B2671">
-        <v>7.999588235190681</v>
+        <v>7.99958823519068</v>
       </c>
     </row>
     <row r="2672" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>75.53056115484058</v>
+        <v>75.53056115484057</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>93.79307777929526</v>
+        <v>93.79307777929523</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>240.7123443279911</v>
+        <v>240.712344327991</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>9.901246782812674</v>
+        <v>9.901246782812672</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>6.618753850220771</v>
+        <v>6.61875385022077</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>50.05075990389615</v>
+        <v>50.05075990389614</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>92.20026599127469</v>
+        <v>92.20026599127468</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>266.5017165170735</v>
+        <v>266.5017165170734</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>84.24376828396944</v>
+        <v>84.24376828396942</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>545.1068566314063</v>
+        <v>545.1068566314062</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>73.29386350274989</v>
+        <v>73.29386350274987</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>668.8127281924376</v>
+        <v>668.8127281924375</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>545.1666431232933</v>
+        <v>545.1666431232932</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>380.8165076365521</v>
+        <v>380.816507636552</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>222.4160952269865</v>
+        <v>222.4160952269864</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>94.37400319212976</v>
+        <v>94.37400319212975</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>497.2831142431939</v>
+        <v>497.2831142431938</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>296.6226493504667</v>
+        <v>296.6226493504666</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>114.2852495587816</v>
+        <v>114.2852495587815</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>74.42134588771512</v>
+        <v>74.42134588771511</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>60.93491712830241</v>
+        <v>60.9349171283024</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>92.38868136203007</v>
+        <v>92.38868136203006</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>208.1348607414346</v>
+        <v>208.1348607414345</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>69.7431115117718</v>
+        <v>69.74311151177179</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>320.1141101396132</v>
+        <v>320.1141101396131</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>61.29158751306365</v>
+        <v>61.29158751306363</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>716.809646257395</v>
+        <v>716.8096462573949</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>61.84112501765754</v>
+        <v>61.84112501765753</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>510.6922279318974</v>
+        <v>510.6922279318973</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>374.7801234532444</v>
+        <v>374.7801234532443</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24255,7 +24255,7 @@
         <v>2989</v>
       </c>
       <c r="B2989">
-        <v>495.3976124088623</v>
+        <v>495.3976124088622</v>
       </c>
     </row>
     <row r="2990" spans="1:2">
@@ -24319,7 +24319,7 @@
         <v>2997</v>
       </c>
       <c r="B2997">
-        <v>748.4136064677263</v>
+        <v>748.4136064677261</v>
       </c>
     </row>
     <row r="2998" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>257.1858087969376</v>
+        <v>257.1858087969375</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>416.6851496801716</v>
+        <v>416.6851496801715</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>536.0533061050801</v>
+        <v>536.05330610508</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>878.660970147198</v>
+        <v>878.6609701471979</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>716.4789448973696</v>
+        <v>716.4789448973695</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>227.2875513387193</v>
+        <v>227.2875513387192</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>385.7019725439329</v>
+        <v>385.7019725439328</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>532.5105168542225</v>
+        <v>532.5105168542224</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>252.4323430853699</v>
+        <v>252.4323430853698</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>508.6358949891301</v>
+        <v>508.63589498913</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25087,7 +25087,7 @@
         <v>3093</v>
       </c>
       <c r="B3093">
-        <v>293.2019241872115</v>
+        <v>293.2019241872114</v>
       </c>
     </row>
     <row r="3094" spans="1:2">
@@ -25103,7 +25103,7 @@
         <v>3095</v>
       </c>
       <c r="B3095">
-        <v>162.5478072131817</v>
+        <v>162.5478072131816</v>
       </c>
     </row>
     <row r="3096" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>27.12045395531605</v>
+        <v>27.12045395531604</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>138.6283982319611</v>
+        <v>138.628398231961</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>479.4098252651853</v>
+        <v>479.4098252651852</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>377.7518344781665</v>
+        <v>377.7518344781664</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>66.74959600157321</v>
+        <v>66.7495960015732</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>249.3393885717535</v>
+        <v>249.3393885717534</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>741.4370503923928</v>
+        <v>741.4370503923927</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25463,7 +25463,7 @@
         <v>3140</v>
       </c>
       <c r="B3140">
-        <v>409.7328305797356</v>
+        <v>409.7328305797355</v>
       </c>
     </row>
     <row r="3141" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>22.86543174346203</v>
+        <v>22.86543174346202</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>80.11184763119472</v>
+        <v>80.11184763119471</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>489.9134033694964</v>
+        <v>489.9134033694963</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>17.56770966741713</v>
+        <v>17.56770966741712</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>60.90203748847499</v>
+        <v>60.90203748847497</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>53.54607164649069</v>
+        <v>53.54607164649068</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>474.8923989681556</v>
+        <v>474.8923989681555</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>78.52203102918931</v>
+        <v>78.52203102918929</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25951,7 +25951,7 @@
         <v>3201</v>
       </c>
       <c r="B3201">
-        <v>145.5565741402322</v>
+        <v>145.5565741402321</v>
       </c>
     </row>
     <row r="3202" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>386.0495254886814</v>
+        <v>386.0495254886813</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>79.95684235884674</v>
+        <v>79.95684235884673</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>95.77734748436615</v>
+        <v>95.77734748436613</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>230.7454672167806</v>
+        <v>230.7454672167805</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>56.63145027375768</v>
+        <v>56.63145027375766</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>454.3600471492688</v>
+        <v>454.3600471492687</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>255.690648278999</v>
+        <v>255.6906482789989</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>500.4677413777036</v>
+        <v>500.4677413777035</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26671,7 +26671,7 @@
         <v>3291</v>
       </c>
       <c r="B3291">
-        <v>145.0247088192696</v>
+        <v>145.0247088192695</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>440.0529051838992</v>
+        <v>440.0529051838991</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>538.9283329943479</v>
+        <v>538.9283329943478</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26911,7 +26911,7 @@
         <v>3321</v>
       </c>
       <c r="B3321">
-        <v>213.6349835381998</v>
+        <v>213.6349835381997</v>
       </c>
     </row>
     <row r="3322" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>315.1882307360011</v>
+        <v>315.188230736001</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>51.8646234535374</v>
+        <v>51.86462345353739</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27143,7 +27143,7 @@
         <v>3350</v>
       </c>
       <c r="B3350">
-        <v>340.8348187150477</v>
+        <v>340.8348187150476</v>
       </c>
     </row>
     <row r="3351" spans="1:2">
@@ -27151,7 +27151,7 @@
         <v>3351</v>
       </c>
       <c r="B3351">
-        <v>296.2734259007979</v>
+        <v>296.2734259007978</v>
       </c>
     </row>
     <row r="3352" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>459.9653238347057</v>
+        <v>459.9653238347056</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>263.0459986718021</v>
+        <v>263.045998671802</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>492.260199018681</v>
+        <v>492.2601990186809</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>282.6223234554717</v>
+        <v>282.6223234554716</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>437.2396869766851</v>
+        <v>437.239686976685</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>48.3337739167948</v>
+        <v>48.33377391679479</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>193.7317292187723</v>
+        <v>193.7317292187722</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>22.67793368505766</v>
+        <v>22.67793368505765</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>474.4440882003153</v>
+        <v>474.4440882003152</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>644.2888367482949</v>
+        <v>644.2888367482948</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>411.1157448898669</v>
+        <v>411.1157448898668</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>397.8493714505434</v>
+        <v>397.8493714505433</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28583,7 +28583,7 @@
         <v>3530</v>
       </c>
       <c r="B3530">
-        <v>340.7665917772473</v>
+        <v>340.7665917772472</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>587.0796115753683</v>
+        <v>587.0796115753682</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>357.6803075604709</v>
+        <v>357.6803075604708</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>724.8921645113246</v>
+        <v>724.8921645113245</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>931.4210838822066</v>
+        <v>931.4210838822064</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>551.4562406840045</v>
+        <v>551.4562406840043</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28967,7 +28967,7 @@
         <v>3578</v>
       </c>
       <c r="B3578">
-        <v>272.9848288846127</v>
+        <v>272.9848288846126</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>518.046142276611</v>
+        <v>518.0461422766109</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>286.0587865335031</v>
+        <v>286.058786533503</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>727.4899461980189</v>
+        <v>727.4899461980187</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29295,7 +29295,7 @@
         <v>3619</v>
       </c>
       <c r="B3619">
-        <v>847.709151612096</v>
+        <v>847.7091516120959</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>482.2999746200481</v>
+        <v>482.299974620048</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>264.7897713518371</v>
+        <v>264.789771351837</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>475.9702263270404</v>
+        <v>475.9702263270403</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>553.8752490371153</v>
+        <v>553.8752490371152</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29687,7 +29687,7 @@
         <v>3668</v>
       </c>
       <c r="B3668">
-        <v>895.803369261889</v>
+        <v>895.8033692618887</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>859.5492215740143</v>
+        <v>859.5492215740142</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29895,7 +29895,7 @@
         <v>3694</v>
       </c>
       <c r="B3694">
-        <v>691.4163888841673</v>
+        <v>691.4163888841672</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>687.8945835196778</v>
+        <v>687.8945835196777</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>1086.79035046021</v>
+        <v>1086.790350460209</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30095,7 +30095,7 @@
         <v>3719</v>
       </c>
       <c r="B3719">
-        <v>674.9637031518619</v>
+        <v>674.9637031518618</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -30263,7 +30263,7 @@
         <v>3740</v>
       </c>
       <c r="B3740">
-        <v>937.479448393414</v>
+        <v>937.4794483934138</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>318.4325857481899</v>
+        <v>318.4325857481898</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30455,7 +30455,7 @@
         <v>3764</v>
       </c>
       <c r="B3764">
-        <v>932.5628886488312</v>
+        <v>932.5628886488311</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>490.6850301071879</v>
+        <v>490.6850301071878</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>433.8553319293277</v>
+        <v>433.8553319293276</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30647,7 +30647,7 @@
         <v>3788</v>
       </c>
       <c r="B3788">
-        <v>869.9632078618065</v>
+        <v>869.9632078618063</v>
       </c>
     </row>
     <row r="3789" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>625.2181181205239</v>
+        <v>625.2181181205237</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>907.4455283513993</v>
+        <v>907.4455283513992</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31271,7 +31271,7 @@
         <v>3866</v>
       </c>
       <c r="B3866">
-        <v>310.6344929372811</v>
+        <v>310.634492937281</v>
       </c>
     </row>
     <row r="3867" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>272.772850602349</v>
+        <v>272.7728506023489</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>207.634787766746</v>
+        <v>207.6347877667459</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>307.2969120276941</v>
+        <v>307.296912027694</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>343.5979217746507</v>
+        <v>343.5979217746506</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31447,7 +31447,7 @@
         <v>3888</v>
       </c>
       <c r="B3888">
-        <v>400.9150263969085</v>
+        <v>400.9150263969084</v>
       </c>
     </row>
     <row r="3889" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>426.0901803031645</v>
+        <v>426.0901803031644</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>451.2230147514377</v>
+        <v>451.2230147514376</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>352.753490329535</v>
+        <v>352.7534903295349</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>254.8391010690646</v>
+        <v>254.8391010690645</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>96.03237497149885</v>
+        <v>96.03237497149884</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>680.3544518369987</v>
+        <v>680.3544518369986</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>291.6566778287657</v>
+        <v>291.6566778287656</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>351.6708272985123</v>
+        <v>351.6708272985122</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>208.4672912205882</v>
+        <v>208.4672912205881</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>152.3475283267813</v>
+        <v>152.3475283267812</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>82.62050348432159</v>
+        <v>82.62050348432157</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>232.3594387337925</v>
+        <v>232.3594387337924</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>557.740269894981</v>
+        <v>557.7402698949809</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>533.728959697457</v>
+        <v>533.7289596974568</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32199,7 +32199,7 @@
         <v>3982</v>
       </c>
       <c r="B3982">
-        <v>412.5382237902174</v>
+        <v>412.5382237902173</v>
       </c>
     </row>
     <row r="3983" spans="1:2">
@@ -32207,7 +32207,7 @@
         <v>3983</v>
       </c>
       <c r="B3983">
-        <v>321.1152994218881</v>
+        <v>321.115299421888</v>
       </c>
     </row>
     <row r="3984" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>502.3918406678269</v>
+        <v>502.3918406678268</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>639.0038867081148</v>
+        <v>639.0038867081147</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>498.646597943462</v>
+        <v>498.6465979434619</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32839,7 +32839,7 @@
         <v>4062</v>
       </c>
       <c r="B4062">
-        <v>391.6655578812371</v>
+        <v>391.665557881237</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>191.3666840360103</v>
+        <v>191.3666840360102</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>575.2996211763755</v>
+        <v>575.2996211763754</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>727.8331323842912</v>
+        <v>727.833132384291</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32983,7 +32983,7 @@
         <v>4080</v>
       </c>
       <c r="B4080">
-        <v>471.8490613813846</v>
+        <v>471.8490613813845</v>
       </c>
     </row>
     <row r="4081" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>466.0905085427278</v>
+        <v>466.0905085427277</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>505.5686428056043</v>
+        <v>505.5686428056042</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>897.2627751131109</v>
+        <v>897.2627751131108</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>941.3775862786486</v>
+        <v>941.3775862786483</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>815.9938830212811</v>
+        <v>815.993883021281</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>449.6710570662066</v>
+        <v>449.6710570662065</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>595.5059900789593</v>
+        <v>595.5059900789591</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>926.0930523993434</v>
+        <v>926.0930523993433</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33599,7 +33599,7 @@
         <v>4157</v>
       </c>
       <c r="B4157">
-        <v>245.3520105552466</v>
+        <v>245.3520105552465</v>
       </c>
     </row>
     <row r="4158" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>212.412437700424</v>
+        <v>212.4124377004239</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>317.6218926410449</v>
+        <v>317.6218926410448</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>115.8046470516175</v>
+        <v>115.8046470516174</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>279.2365645978392</v>
+        <v>279.2365645978391</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>244.9128142967087</v>
+        <v>244.9128142967086</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>349.1635752556606</v>
+        <v>349.1635752556605</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>491.0935711350818</v>
+        <v>491.0935711350817</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>578.6930907330352</v>
+        <v>578.6930907330351</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>749.5362150813185</v>
+        <v>749.5362150813183</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>427.4202245979213</v>
+        <v>427.4202245979212</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>775.2775236200604</v>
+        <v>775.2775236200603</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34527,7 +34527,7 @@
         <v>4273</v>
       </c>
       <c r="B4273">
-        <v>531.947087782396</v>
+        <v>531.9470877823959</v>
       </c>
     </row>
     <row r="4274" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>734.1687420980722</v>
+        <v>734.1687420980721</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>974.0333198325277</v>
+        <v>974.0333198325275</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>1021.382756051771</v>
+        <v>1021.38275605177</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34719,7 +34719,7 @@
         <v>4297</v>
       </c>
       <c r="B4297">
-        <v>586.8668420013001</v>
+        <v>586.8668420013</v>
       </c>
     </row>
     <row r="4298" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>620.3619310099052</v>
+        <v>620.3619310099051</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>1138.066059384399</v>
+        <v>1138.066059384398</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>741.5989721412534</v>
+        <v>741.5989721412532</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>625.524787655379</v>
+        <v>625.5247876553789</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>354.8058668132804</v>
+        <v>354.8058668132803</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>255.8582556060094</v>
+        <v>255.8582556060093</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>549.38833143521</v>
+        <v>549.3883314352098</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>743.9365067456162</v>
+        <v>743.936506745616</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>762.6860195150143</v>
+        <v>762.6860195150142</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>873.0691747295394</v>
+        <v>873.0691747295393</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>711.9375453893771</v>
+        <v>711.937545389377</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>499.8452584915868</v>
+        <v>499.8452584915867</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>925.2070986494701</v>
+        <v>925.20709864947</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>778.3198940724038</v>
+        <v>778.3198940724037</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>552.3577271989268</v>
+        <v>552.3577271989267</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>499.8452584915869</v>
+        <v>499.8452584915868</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>496.5631559296185</v>
+        <v>496.5631559296183</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>754.8701079849551</v>
+        <v>754.870107984955</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>801.3705174051961</v>
+        <v>801.370517405196</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>1201.38024736368</v>
+        <v>1201.380247363679</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>950.4677706848074</v>
+        <v>950.4677706848073</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35759,7 +35759,7 @@
         <v>4427</v>
       </c>
       <c r="B4427">
-        <v>290.7839122756322</v>
+        <v>290.7839122756321</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35855,7 +35855,7 @@
         <v>4439</v>
       </c>
       <c r="B4439">
-        <v>514.4182158890222</v>
+        <v>514.4182158890221</v>
       </c>
     </row>
     <row r="4440" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>790.8231837948128</v>
+        <v>790.8231837948127</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36039,7 +36039,7 @@
         <v>4462</v>
       </c>
       <c r="B4462">
-        <v>610.9906914776701</v>
+        <v>610.99069147767</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>508.102828076909</v>
+        <v>508.1028280769089</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>187.7660718692247</v>
+        <v>187.7660718692246</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>634.7280681753574</v>
+        <v>634.7280681753573</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>936.3742775066221</v>
+        <v>936.3742775066219</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>317.0067365308947</v>
+        <v>317.0067365308946</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>425.777649347536</v>
+        <v>425.7776493475359</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>1324.106089371428</v>
+        <v>1324.106089371427</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>751.5713003737828</v>
+        <v>751.5713003737827</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -37007,7 +37007,7 @@
         <v>4583</v>
       </c>
       <c r="B4583">
-        <v>604.2157682769358</v>
+        <v>604.2157682769357</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>524.1862736076049</v>
+        <v>524.1862736076048</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>421.9821449400407</v>
+        <v>421.9821449400405</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>633.8291313784714</v>
+        <v>633.8291313784713</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>838.2681611726595</v>
+        <v>838.2681611726592</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>839.139754441638</v>
+        <v>839.1397544416379</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>754.8976566625892</v>
+        <v>754.897656662589</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>591.4610236033553</v>
+        <v>591.4610236033552</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>539.8925367115437</v>
+        <v>539.8925367115436</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>581.8562064533071</v>
+        <v>581.856206453307</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>563.634514624538</v>
+        <v>563.6345146245379</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>133.4176332637974</v>
+        <v>133.4176332637973</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>443.7209823037846</v>
+        <v>443.7209823037845</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>335.7600592237956</v>
+        <v>335.7600592237955</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>310.6019620519897</v>
+        <v>310.6019620519896</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>672.2385820988694</v>
+        <v>672.2385820988693</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>628.8787219289233</v>
+        <v>628.8787219289231</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>470.3412108874719</v>
+        <v>470.3412108874718</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>438.6552494005233</v>
+        <v>438.6552494005232</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>1547.03497099476</v>
+        <v>1547.034970994759</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -37991,7 +37991,7 @@
         <v>4706</v>
       </c>
       <c r="B4706">
-        <v>588.0698400007973</v>
+        <v>588.0698400007972</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>718.5331091144508</v>
+        <v>718.5331091144507</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>664.8674058699786</v>
+        <v>664.8674058699784</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>498.6955408069184</v>
+        <v>498.6955408069183</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>906.8719883287391</v>
+        <v>906.8719883287389</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38343,7 +38343,7 @@
         <v>4750</v>
       </c>
       <c r="B4750">
-        <v>702.968692393224</v>
+        <v>702.9686923932239</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>751.8192384724903</v>
+        <v>751.8192384724902</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>800.7316225409144</v>
+        <v>800.7316225409141</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>723.5786201160445</v>
+        <v>723.5786201160444</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>874.6998219886513</v>
+        <v>874.6998219886511</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38527,7 +38527,7 @@
         <v>4773</v>
       </c>
       <c r="B4773">
-        <v>780.4194549933737</v>
+        <v>780.4194549933736</v>
       </c>
     </row>
     <row r="4774" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>469.6099986460119</v>
+        <v>469.6099986460118</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>177.8595380848746</v>
+        <v>177.8595380848745</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38799,7 +38799,7 @@
         <v>4807</v>
       </c>
       <c r="B4807">
-        <v>184.1481392040543</v>
+        <v>184.1481392040542</v>
       </c>
     </row>
     <row r="4808" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>680.8289338485914</v>
+        <v>680.8289338485913</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -39007,7 +39007,7 @@
         <v>4833</v>
       </c>
       <c r="B4833">
-        <v>153.593959454208</v>
+        <v>153.5939594542079</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>401.0656649107805</v>
+        <v>401.0656649107804</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>601.6889683958054</v>
+        <v>601.6889683958053</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>571.7283161134561</v>
+        <v>571.728316113456</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>755.5541123435074</v>
+        <v>755.5541123435073</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39111,7 +39111,7 @@
         <v>4846</v>
       </c>
       <c r="B4846">
-        <v>627.1992783418744</v>
+        <v>627.1992783418743</v>
       </c>
     </row>
     <row r="4847" spans="1:2">
@@ -39127,7 +39127,7 @@
         <v>4848</v>
       </c>
       <c r="B4848">
-        <v>481.5198195151316</v>
+        <v>481.5198195151315</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>247.6570142743181</v>
+        <v>247.657014274318</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>1011.573375316737</v>
+        <v>1011.573375316736</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>524.878507400923</v>
+        <v>524.8785074009229</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>472.9763737851473</v>
+        <v>472.9763737851472</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39327,7 +39327,7 @@
         <v>4873</v>
       </c>
       <c r="B4873">
-        <v>430.8624904825181</v>
+        <v>430.862490482518</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>455.9541191427555</v>
+        <v>455.9541191427554</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>997.1563317118691</v>
+        <v>997.1563317118689</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39503,7 +39503,7 @@
         <v>4895</v>
       </c>
       <c r="B4895">
-        <v>605.9091327383211</v>
+        <v>605.909132738321</v>
       </c>
     </row>
     <row r="4896" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>497.3494655263469</v>
+        <v>497.3494655263468</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>630.0438258431216</v>
+        <v>630.0438258431215</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>763.8887830576806</v>
+        <v>763.8887830576805</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39839,7 +39839,7 @@
         <v>4937</v>
       </c>
       <c r="B4937">
-        <v>916.8897425722612</v>
+        <v>916.8897425722611</v>
       </c>
     </row>
     <row r="4938" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>705.7267839380661</v>
+        <v>705.7267839380659</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>497.1934931195713</v>
+        <v>497.1934931195712</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>730.6439767160923</v>
+        <v>730.6439767160922</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>806.7096855875284</v>
+        <v>806.7096855875283</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>902.5195903335795</v>
+        <v>902.5195903335793</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40071,7 +40071,7 @@
         <v>4966</v>
       </c>
       <c r="B4966">
-        <v>828.0918554972216</v>
+        <v>828.0918554972214</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>578.5025945579054</v>
+        <v>578.5025945579052</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>476.0490624364403</v>
+        <v>476.0490624364402</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>823.6512431194247</v>
+        <v>823.6512431194246</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40311,7 +40311,7 @@
         <v>4996</v>
       </c>
       <c r="B4996">
-        <v>464.0888333486708</v>
+        <v>464.0888333486707</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40319,7 +40319,7 @@
         <v>4997</v>
       </c>
       <c r="B4997">
-        <v>431.5350885162459</v>
+        <v>431.5350885162458</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>575.4608981689508</v>
+        <v>575.4608981689507</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>683.1228594824014</v>
+        <v>683.1228594824013</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>778.5656927525292</v>
+        <v>778.565692752529</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>907.6269393243308</v>
+        <v>907.6269393243306</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>1038.686080473791</v>
+        <v>1038.68608047379</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40463,7 +40463,7 @@
         <v>5015</v>
       </c>
       <c r="B5015">
-        <v>753.2115603629627</v>
+        <v>753.2115603629626</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40495,7 +40495,7 @@
         <v>5019</v>
       </c>
       <c r="B5019">
-        <v>503.6780854958557</v>
+        <v>503.6780854958556</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>502.0992678499313</v>
+        <v>502.0992678499312</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>600.2124178888218</v>
+        <v>600.2124178888217</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>625.8083631923877</v>
+        <v>625.8083631923876</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40647,7 +40647,7 @@
         <v>5038</v>
       </c>
       <c r="B5038">
-        <v>907.4431544759861</v>
+        <v>907.443154475986</v>
       </c>
     </row>
     <row r="5039" spans="1:2">
@@ -40663,7 +40663,7 @@
         <v>5040</v>
       </c>
       <c r="B5040">
-        <v>714.3225868091072</v>
+        <v>714.3225868091071</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>360.0310303615736</v>
+        <v>360.0310303615735</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>721.2193982548206</v>
+        <v>721.2193982548205</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40823,7 +40823,7 @@
         <v>5060</v>
       </c>
       <c r="B5060">
-        <v>1236.607972352851</v>
+        <v>1236.60797235285</v>
       </c>
     </row>
     <row r="5061" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>821.773214596579</v>
+        <v>821.7732145965789</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>548.3825116305243</v>
+        <v>548.3825116305242</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>877.9869067582769</v>
+        <v>877.9869067582767</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>828.4332832572619</v>
+        <v>828.4332832572617</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>897.5569891288229</v>
+        <v>897.5569891288228</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41079,7 +41079,7 @@
         <v>5092</v>
       </c>
       <c r="B5092">
-        <v>628.0670616873507</v>
+        <v>628.0670616873506</v>
       </c>
     </row>
     <row r="5093" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>521.3155255555016</v>
+        <v>521.3155255555015</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>829.6855758054618</v>
+        <v>829.6855758054617</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>817.2968475520656</v>
+        <v>817.2968475520655</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>1033.55546164257</v>
+        <v>1033.555461642569</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>1656.887667629308</v>
+        <v>1656.887667629307</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41615,7 +41615,7 @@
         <v>5159</v>
       </c>
       <c r="B5159">
-        <v>805.2362709406584</v>
+        <v>805.2362709406582</v>
       </c>
     </row>
     <row r="5160" spans="1:2">
@@ -41631,7 +41631,7 @@
         <v>5161</v>
       </c>
       <c r="B5161">
-        <v>633.8583652145779</v>
+        <v>633.8583652145778</v>
       </c>
     </row>
     <row r="5162" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>560.0710638654547</v>
+        <v>560.0710638654546</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41671,7 +41671,7 @@
         <v>5166</v>
       </c>
       <c r="B5166">
-        <v>428.9478573869435</v>
+        <v>428.9478573869434</v>
       </c>
     </row>
     <row r="5167" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>927.022028977692</v>
+        <v>927.0220289776919</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>1643.851281687574</v>
+        <v>1643.851281687573</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>804.9214540309284</v>
+        <v>804.9214540309283</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41855,7 +41855,7 @@
         <v>5189</v>
       </c>
       <c r="B5189">
-        <v>449.4959471206064</v>
+        <v>449.4959471206063</v>
       </c>
     </row>
     <row r="5190" spans="1:2">
@@ -42031,7 +42031,7 @@
         <v>5211</v>
       </c>
       <c r="B5211">
-        <v>468.6364195862893</v>
+        <v>468.6364195862892</v>
       </c>
     </row>
     <row r="5212" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>492.6047802230975</v>
+        <v>492.6047802230974</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>894.9516169022274</v>
+        <v>894.9516169022273</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42199,7 +42199,7 @@
         <v>5232</v>
       </c>
       <c r="B5232">
-        <v>662.6327392001857</v>
+        <v>662.6327392001856</v>
       </c>
     </row>
     <row r="5233" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>640.0571840210637</v>
+        <v>640.0571840210636</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>954.2938130945313</v>
+        <v>954.2938130945312</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>1054.166561649545</v>
+        <v>1054.166561649544</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>447.1721868550606</v>
+        <v>447.1721868550605</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42431,7 +42431,7 @@
         <v>5261</v>
       </c>
       <c r="B5261">
-        <v>322.8630285609451</v>
+        <v>322.863028560945</v>
       </c>
     </row>
     <row r="5262" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>240.5632297835202</v>
+        <v>240.5632297835201</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>662.177306806106</v>
+        <v>662.1773068061059</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>307.7046617637836</v>
+        <v>307.7046617637835</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>638.6258250682416</v>
+        <v>638.6258250682415</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42871,7 +42871,7 @@
         <v>5316</v>
       </c>
       <c r="B5316">
-        <v>253.4790462999489</v>
+        <v>253.4790462999488</v>
       </c>
     </row>
     <row r="5317" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>854.1974513370194</v>
+        <v>854.1974513370193</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>859.7664634121325</v>
+        <v>859.7664634121323</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>693.0910261061821</v>
+        <v>693.091026106182</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>1079.562632504744</v>
+        <v>1079.562632504743</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>580.4068089780556</v>
+        <v>580.4068089780553</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>539.9757688865235</v>
+        <v>539.9757688865234</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>721.5077801568634</v>
+        <v>721.5077801568633</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>983.1850491568055</v>
+        <v>983.1850491568052</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43527,7 +43527,7 @@
         <v>5398</v>
       </c>
       <c r="B5398">
-        <v>640.5823673223449</v>
+        <v>640.5823673223447</v>
       </c>
     </row>
     <row r="5399" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>354.9509369774178</v>
+        <v>354.9509369774177</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43703,7 +43703,7 @@
         <v>5420</v>
       </c>
       <c r="B5420">
-        <v>944.9595005131675</v>
+        <v>944.9595005131673</v>
       </c>
     </row>
     <row r="5421" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>297.6939119180855</v>
+        <v>297.6939119180854</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>420.2216085965942</v>
+        <v>420.2216085965941</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>570.407093256963</v>
+        <v>570.4070932569629</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>664.2396477051659</v>
+        <v>664.2396477051658</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43911,7 +43911,7 @@
         <v>5446</v>
       </c>
       <c r="B5446">
-        <v>624.4757691795946</v>
+        <v>624.4757691795945</v>
       </c>
     </row>
     <row r="5447" spans="1:2">
@@ -43919,7 +43919,7 @@
         <v>5447</v>
       </c>
       <c r="B5447">
-        <v>527.4666177433413</v>
+        <v>527.4666177433412</v>
       </c>
     </row>
     <row r="5448" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>464.6427376117407</v>
+        <v>464.6427376117406</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>442.3673164833117</v>
+        <v>442.3673164833116</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>667.6342895459803</v>
+        <v>667.6342895459802</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>429.4932625898923</v>
+        <v>429.4932625898922</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>352.0313632902734</v>
+        <v>352.0313632902733</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44663,7 +44663,7 @@
         <v>5540</v>
       </c>
       <c r="B5540">
-        <v>910.1053531769782</v>
+        <v>910.1053531769779</v>
       </c>
     </row>
     <row r="5541" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>445.4393662397404</v>
+        <v>445.4393662397403</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>439.2243933576036</v>
+        <v>439.2243933576035</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>970.4417342537329</v>
+        <v>970.4417342537328</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>640.4071108412253</v>
+        <v>640.4071108412252</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44887,7 +44887,7 @@
         <v>5568</v>
       </c>
       <c r="B5568">
-        <v>555.7637988102489</v>
+        <v>555.7637988102488</v>
       </c>
     </row>
     <row r="5569" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>514.174380784856</v>
+        <v>514.1743807848559</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>302.5536451882718</v>
+        <v>302.5536451882717</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>447.5939160796943</v>
+        <v>447.5939160796942</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>621.2150608034485</v>
+        <v>621.2150608034483</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>537.9899195285543</v>
+        <v>537.9899195285542</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45479,7 +45479,7 @@
         <v>5642</v>
       </c>
       <c r="B5642">
-        <v>259.7394246781055</v>
+        <v>259.7394246781054</v>
       </c>
     </row>
     <row r="5643" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>474.8744337134857</v>
+        <v>474.8744337134856</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>745.5560173052588</v>
+        <v>745.5560173052587</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -45623,7 +45623,7 @@
         <v>5660</v>
       </c>
       <c r="B5660">
-        <v>744.3553052598633</v>
+        <v>744.3553052598631</v>
       </c>
     </row>
     <row r="5661" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>306.8840628555319</v>
+        <v>306.8840628555318</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>382.2191456275853</v>
+        <v>382.2191456275852</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>558.6789828793761</v>
+        <v>558.678982879376</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>616.0703804237925</v>
+        <v>616.0703804237924</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>747.2039557556516</v>
+        <v>747.2039557556514</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>414.3256933621169</v>
+        <v>414.3256933621168</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>519.4835971070372</v>
+        <v>519.4835971070371</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>769.3062012073354</v>
+        <v>769.3062012073353</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>477.4241517498393</v>
+        <v>477.4241517498392</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>386.9707063774017</v>
+        <v>386.9707063774016</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>776.2897909875967</v>
+        <v>776.2897909875966</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>467.8335192380622</v>
+        <v>467.8335192380621</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>534.5269921357318</v>
+        <v>534.5269921357317</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>172.9376737544921</v>
+        <v>172.937673754492</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>764.860313550843</v>
+        <v>764.8603135508429</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>246.4361975556704</v>
+        <v>246.4361975556703</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>351.4608712064153</v>
+        <v>351.4608712064152</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>188.6487725305688</v>
+        <v>188.6487725305687</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>1141.460115083136</v>
+        <v>1141.460115083135</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>630.4409371005077</v>
+        <v>630.4409371005074</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>58.26584591145388</v>
+        <v>58.26584591145386</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>82.18093502556459</v>
+        <v>82.18093502556458</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>592.036908194325</v>
+        <v>592.0369081943248</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>282.9806028002352</v>
+        <v>282.9806028002351</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>588.9411988129451</v>
+        <v>588.941198812945</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>702.0932892007426</v>
+        <v>702.0932892007424</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>747.1160344440531</v>
+        <v>747.116034444053</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>273.3246154468367</v>
+        <v>273.3246154468366</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47423,7 +47423,7 @@
         <v>5885</v>
       </c>
       <c r="B5885">
-        <v>243.0884763881457</v>
+        <v>243.0884763881456</v>
       </c>
     </row>
     <row r="5886" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>880.2262625646882</v>
+        <v>880.2262625646881</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>720.9122304991997</v>
+        <v>720.9122304991996</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47551,7 +47551,7 @@
         <v>5901</v>
       </c>
       <c r="B5901">
-        <v>627.4330318023108</v>
+        <v>627.4330318023107</v>
       </c>
     </row>
     <row r="5902" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>205.1201855022447</v>
+        <v>205.1201855022446</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>480.0811337863431</v>
+        <v>480.081133786343</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47919,7 +47919,7 @@
         <v>5947</v>
       </c>
       <c r="B5947">
-        <v>995.6291385294048</v>
+        <v>995.6291385294046</v>
       </c>
     </row>
     <row r="5948" spans="1:2">
@@ -47959,7 +47959,7 @@
         <v>5952</v>
       </c>
       <c r="B5952">
-        <v>471.0656824950428</v>
+        <v>471.0656824950427</v>
       </c>
     </row>
     <row r="5953" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>371.533482486954</v>
+        <v>371.5334824869539</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>210.7756945637081</v>
+        <v>210.775694563708</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>578.0544889397922</v>
+        <v>578.0544889397921</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>848.9532381712133</v>
+        <v>848.9532381712132</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>824.53455922995</v>
+        <v>824.5345592299499</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>577.6477063381302</v>
+        <v>577.6477063381301</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>403.8568734829911</v>
+        <v>403.856873482991</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>907.5970460783872</v>
+        <v>907.5970460783871</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>290.7270564941319</v>
+        <v>290.7270564941318</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>426.6325961815189</v>
+        <v>426.6325961815188</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>955.937179636721</v>
+        <v>955.9371796367209</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48503,7 +48503,7 @@
         <v>6020</v>
       </c>
       <c r="B6020">
-        <v>800.5705800051699</v>
+        <v>800.5705800051697</v>
       </c>
     </row>
     <row r="6021" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>621.9618058099576</v>
+        <v>621.9618058099575</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>954.4289188433543</v>
+        <v>954.4289188433539</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>257.616564609562</v>
+        <v>257.6165646095619</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>546.7738446993121</v>
+        <v>546.773844699312</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>356.1852349638439</v>
+        <v>356.1852349638438</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>915.8563740899411</v>
+        <v>915.856374089941</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>578.7056927876977</v>
+        <v>578.7056927876976</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49311,7 +49311,7 @@
         <v>6121</v>
       </c>
       <c r="B6121">
-        <v>296.5565325241447</v>
+        <v>296.5565325241446</v>
       </c>
     </row>
     <row r="6122" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>198.9698846062093</v>
+        <v>198.9698846062092</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>473.3278978424697</v>
+        <v>473.3278978424696</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>666.0947873798923</v>
+        <v>666.0947873798922</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>341.7060016845724</v>
+        <v>341.7060016845723</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>623.2999681724853</v>
+        <v>623.2999681724851</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>842.8421208730472</v>
+        <v>842.842120873047</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>223.8400101754265</v>
+        <v>223.8400101754264</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49935,7 +49935,7 @@
         <v>6199</v>
       </c>
       <c r="B6199">
-        <v>60.80035649161143</v>
+        <v>60.80035649161142</v>
       </c>
     </row>
     <row r="6200" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>352.2432536512256</v>
+        <v>352.2432536512255</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>394.8598856671264</v>
+        <v>394.8598856671263</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>981.2601585748777</v>
+        <v>981.2601585748776</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>437.9653601755145</v>
+        <v>437.9653601755144</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>628.47443043109</v>
+        <v>628.4744304310899</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>551.6540636351009</v>
+        <v>551.6540636351008</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>344.8423600190145</v>
+        <v>344.8423600190144</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>748.2452371560153</v>
+        <v>748.2452371560152</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -51263,7 +51263,7 @@
         <v>6365</v>
       </c>
       <c r="B6365">
-        <v>72.66142499344987</v>
+        <v>72.66142499344986</v>
       </c>
     </row>
     <row r="6366" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>201.5067075168619</v>
+        <v>201.5067075168618</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>48.04840478502947</v>
+        <v>48.04840478502946</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>348.557709497436</v>
+        <v>348.5577094974359</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>359.6811035414119</v>
+        <v>359.6811035414118</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>318.3471262333162</v>
+        <v>318.3471262333161</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51783,7 +51783,7 @@
         <v>6430</v>
       </c>
       <c r="B6430">
-        <v>377.0865925275092</v>
+        <v>377.0865925275091</v>
       </c>
     </row>
     <row r="6431" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>298.066434515328</v>
+        <v>298.0664345153279</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>140.144460576377</v>
+        <v>140.1444605763769</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>40.11502452125382</v>
+        <v>40.11502452125381</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51951,7 +51951,7 @@
         <v>6451</v>
       </c>
       <c r="B6451">
-        <v>694.7272417150284</v>
+        <v>694.7272417150282</v>
       </c>
     </row>
     <row r="6452" spans="1:2">
@@ -51967,7 +51967,7 @@
         <v>6453</v>
       </c>
       <c r="B6453">
-        <v>554.2588790267229</v>
+        <v>554.2588790267228</v>
       </c>
     </row>
     <row r="6454" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>461.1056632461369</v>
+        <v>461.1056632461368</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>339.1748936591737</v>
+        <v>339.1748936591736</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>546.0303234742283</v>
+        <v>546.0303234742282</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>659.9335549341148</v>
+        <v>659.9335549341147</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52183,7 +52183,7 @@
         <v>6480</v>
       </c>
       <c r="B6480">
-        <v>329.5994129200954</v>
+        <v>329.5994129200953</v>
       </c>
     </row>
     <row r="6481" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>94.72197522846353</v>
+        <v>94.72197522846352</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52391,7 +52391,7 @@
         <v>6506</v>
       </c>
       <c r="B6506">
-        <v>201.4761695146334</v>
+        <v>201.4761695146333</v>
       </c>
     </row>
     <row r="6507" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>211.2563603742166</v>
+        <v>211.2563603742165</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>292.6959077318588</v>
+        <v>292.6959077318587</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>77.8654376048828</v>
+        <v>77.86543760488279</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>462.9769218279897</v>
+        <v>462.9769218279895</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>470.3804736145214</v>
+        <v>470.3804736145213</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -52743,7 +52743,7 @@
         <v>6550</v>
       </c>
       <c r="B6550">
-        <v>451.265216981005</v>
+        <v>451.2652169810049</v>
       </c>
     </row>
     <row r="6551" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>165.523210933191</v>
+        <v>165.5232109331909</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>80.28902079690705</v>
+        <v>80.28902079690704</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>535.1312166961399</v>
+        <v>535.1312166961397</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>49.84100896152622</v>
+        <v>49.84100896152621</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>332.8876406667718</v>
+        <v>332.8876406667717</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53111,7 +53111,7 @@
         <v>6596</v>
       </c>
       <c r="B6596">
-        <v>295.4272418908709</v>
+        <v>295.4272418908708</v>
       </c>
     </row>
     <row r="6597" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>476.2307078662026</v>
+        <v>476.2307078662025</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53311,7 +53311,7 @@
         <v>6621</v>
       </c>
       <c r="B6621">
-        <v>220.0493854007249</v>
+        <v>220.0493854007248</v>
       </c>
     </row>
     <row r="6622" spans="1:2">
@@ -53319,7 +53319,7 @@
         <v>6622</v>
       </c>
       <c r="B6622">
-        <v>169.4772081583944</v>
+        <v>169.4772081583943</v>
       </c>
     </row>
     <row r="6623" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>28.58854936283426</v>
+        <v>28.58854936283425</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>556.614085814717</v>
+        <v>556.6140858147169</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53503,7 +53503,7 @@
         <v>6645</v>
       </c>
       <c r="B6645">
-        <v>296.1215857956674</v>
+        <v>296.1215857956673</v>
       </c>
     </row>
     <row r="6646" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>270.7930971219838</v>
+        <v>270.7930971219837</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>330.5231142197483</v>
+        <v>330.5231142197482</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53799,7 +53799,7 @@
         <v>6682</v>
       </c>
       <c r="B6682">
-        <v>32.22847114803546</v>
+        <v>32.22847114803545</v>
       </c>
     </row>
     <row r="6683" spans="1:2">
@@ -53839,7 +53839,7 @@
         <v>6687</v>
       </c>
       <c r="B6687">
-        <v>251.0213818768387</v>
+        <v>251.0213818768386</v>
       </c>
     </row>
     <row r="6688" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>64.83094783276898</v>
+        <v>64.83094783276897</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>50.03663387983267</v>
+        <v>50.03663387983266</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>44.24220914604375</v>
+        <v>44.24220914604374</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>448.6002927193535</v>
+        <v>448.6002927193534</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>531.8799745145426</v>
+        <v>531.8799745145425</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>463.7892268258473</v>
+        <v>463.7892268258472</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>666.25509723804</v>
+        <v>666.2550972380398</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54639,7 +54639,7 @@
         <v>6787</v>
       </c>
       <c r="B6787">
-        <v>329.9216152199997</v>
+        <v>329.9216152199996</v>
       </c>
     </row>
     <row r="6788" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>16.47761728556432</v>
+        <v>16.47761728556431</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>98.9270083132531</v>
+        <v>98.92700831325308</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>301.3875243175695</v>
+        <v>301.3875243175694</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>56.94935908294556</v>
+        <v>56.94935908294555</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>32.58318381825845</v>
+        <v>32.58318381825844</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>8.908289866013783</v>
+        <v>8.908289866013781</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>69.6772584493846</v>
+        <v>69.67725844938458</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55127,7 +55127,7 @@
         <v>6848</v>
       </c>
       <c r="B6848">
-        <v>3.685555290489083</v>
+        <v>3.685555290489082</v>
       </c>
     </row>
     <row r="6849" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>337.1162161480971</v>
+        <v>337.116216148097</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55295,7 +55295,7 @@
         <v>6869</v>
       </c>
       <c r="B6869">
-        <v>5.947141121324964</v>
+        <v>5.947141121324963</v>
       </c>
     </row>
     <row r="6870" spans="1:2">
@@ -55311,7 +55311,7 @@
         <v>6871</v>
       </c>
       <c r="B6871">
-        <v>6.981978475690638</v>
+        <v>6.981978475690637</v>
       </c>
     </row>
     <row r="6872" spans="1:2">
@@ -55327,7 +55327,7 @@
         <v>6873</v>
       </c>
       <c r="B6873">
-        <v>5.563667631651907</v>
+        <v>5.563667631651906</v>
       </c>
     </row>
     <row r="6874" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>62.28081949696116</v>
+        <v>62.28081949696115</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>7.104918259556608</v>
+        <v>7.104918259556607</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>6.040446147903576</v>
+        <v>6.040446147903575</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>234.6866572375945</v>
+        <v>234.6866572375944</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>108.7596881958606</v>
+        <v>108.7596881958605</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>9.799765074255411</v>
+        <v>9.799765074255408</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>31.34735013958974</v>
+        <v>31.34735013958973</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>125.3348864144576</v>
+        <v>125.3348864144575</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>417.1132092392404</v>
+        <v>417.1132092392403</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>14.70632230428863</v>
+        <v>14.70632230428862</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>433.3591626608741</v>
+        <v>433.3591626608739</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>221.0809221890532</v>
+        <v>221.0809221890531</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>116.5479338198704</v>
+        <v>116.5479338198703</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>419.023885875793</v>
+        <v>419.0238858757929</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>537.2290484979817</v>
+        <v>537.2290484979816</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>336.7787741541824</v>
+        <v>336.7787741541823</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>585.426104775241</v>
+        <v>585.4261047752409</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57239,7 +57239,7 @@
         <v>7112</v>
       </c>
       <c r="B7112">
-        <v>89.81517768017861</v>
+        <v>89.81517768017859</v>
       </c>
     </row>
     <row r="7113" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>263.7744853526026</v>
+        <v>263.7744853526025</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>191.6359606370427</v>
+        <v>191.6359606370426</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57823,7 +57823,7 @@
         <v>7185</v>
       </c>
       <c r="B7185">
-        <v>4.639200244304019</v>
+        <v>4.639200244304018</v>
       </c>
     </row>
     <row r="7186" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>18.86892749481118</v>
+        <v>18.86892749481117</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>12.3262367158225</v>
+        <v>12.32623671582249</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>68.26343686751608</v>
+        <v>68.26343686751606</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>6.644070791895532</v>
+        <v>6.644070791895531</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>26.65568138723418</v>
+        <v>26.65568138723417</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>9.105901805962356</v>
+        <v>9.105901805962354</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>9.589600901720974</v>
+        <v>9.589600901720972</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>56.65679212647071</v>
+        <v>56.6567921264707</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>56.9818606611331</v>
+        <v>56.98186066113309</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>5.551263106869527</v>
+        <v>5.551263106869526</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>170.9712550063861</v>
+        <v>170.971255006386</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>42.3687525314011</v>
+        <v>42.36875253140109</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>67.47761376871186</v>
+        <v>67.47761376871185</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59207,7 +59207,7 @@
         <v>7358</v>
       </c>
       <c r="B7358">
-        <v>90.36959774827662</v>
+        <v>90.36959774827659</v>
       </c>
     </row>
     <row r="7359" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>70.29300070161207</v>
+        <v>70.29300070161206</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>16.81430315619925</v>
+        <v>16.81430315619924</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>7.048074200897854</v>
+        <v>7.048074200897852</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>6.391798172526232</v>
+        <v>6.391798172526231</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>58.60727953291511</v>
+        <v>58.6072795329151</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>45.25620563270815</v>
+        <v>45.25620563270814</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>8.56153700520084</v>
+        <v>8.561537005200838</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>167.91370347424</v>
+        <v>167.9137034742399</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>110.8539445310307</v>
+        <v>110.8539445310306</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>375.7124410414339</v>
+        <v>375.7124410414338</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>215.6643539454103</v>
+        <v>215.6643539454102</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>217.4682061883709</v>
+        <v>217.4682061883708</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>99.093853655563</v>
+        <v>99.09385365556298</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>9.469409538055569</v>
+        <v>9.469409538055567</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>2.050878011524726</v>
+        <v>2.050878011524725</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>8.576474836041408</v>
+        <v>8.576474836041406</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>3.754555349689433</v>
+        <v>3.754555349689432</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>5.317493527526112</v>
+        <v>5.317493527526111</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>4.200872062182642</v>
+        <v>4.200872062182641</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>5.844405068722229</v>
+        <v>5.844405068722228</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>5.133802461913954</v>
+        <v>5.133802461913953</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>71.62626877779414</v>
+        <v>71.62626877779412</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>4.96670976764742</v>
+        <v>4.966709767647419</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>4.740309459571144</v>
+        <v>4.740309459571143</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>4.047663608372689</v>
+        <v>4.047663608372687</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>43.13259706073195</v>
+        <v>43.13259706073194</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>17.95720693921883</v>
+        <v>17.95720693921882</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>37.52557777489918</v>
+        <v>37.52557777489917</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>6.507970653038474</v>
+        <v>6.507970653038473</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>4.639193210599091</v>
+        <v>4.63919321059909</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>1.738859637142886</v>
+        <v>1.738859637142885</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>37.11885202901873</v>
+        <v>37.11885202901872</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>49.18455328060791</v>
+        <v>49.1845532806079</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>34.28494476490135</v>
+        <v>34.28494476490134</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>30.00107557071189</v>
+        <v>30.00107557071188</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>6.872712214204451</v>
+        <v>6.87271221420445</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>5.222158104791654</v>
+        <v>5.222158104791653</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>4.788609325168766</v>
+        <v>4.788609325168765</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>36.05884514771074</v>
+        <v>36.05884514771073</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>19.2387831456018</v>
+        <v>19.23878314560179</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>4.849927113232686</v>
+        <v>4.849927113232685</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>24.18670442203168</v>
+        <v>24.18670442203167</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>78.55070803032231</v>
+        <v>78.5507080303223</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>82.18652682098227</v>
+        <v>82.18652682098225</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>5.54131862038567</v>
+        <v>5.541318620385669</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>9.651942973065015</v>
+        <v>9.651942973065013</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>203.7247277516587</v>
+        <v>203.7247277516586</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>301.6290060612953</v>
+        <v>301.6290060612952</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>534.0654052498402</v>
+        <v>534.0654052498401</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63367,7 +63367,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>77.92884938551795</v>
+        <v>77.92884938551794</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>6.815185300025616</v>
+        <v>6.815185300025615</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>6.795083557483833</v>
+        <v>6.795083557483832</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>141.613918764225</v>
+        <v>141.6139187642249</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>39.60110687069882</v>
+        <v>39.60110687069881</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>22.73671201257158</v>
+        <v>22.73671201257157</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>106.3592312394971</v>
+        <v>106.359231239497</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>312.1027495338706</v>
+        <v>312.1027495338705</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>212.4455254206889</v>
+        <v>212.4455254206888</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>9.513742394073871</v>
+        <v>9.513742394073869</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>62.93430929896822</v>
+        <v>62.93430929896821</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>52.66143671629142</v>
+        <v>52.66143671629141</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>17.20953875893794</v>
+        <v>17.20953875893793</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>4.75999416202491</v>
+        <v>4.759994162024909</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>4.5216960489921</v>
+        <v>4.521696048992099</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>8.833729663067952</v>
+        <v>8.833729663067949</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>45.49566225555678</v>
+        <v>45.49566225555677</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64615,7 +64615,7 @@
         <v>8034</v>
       </c>
       <c r="B8034">
-        <v>5.879456364946125</v>
+        <v>5.879456364946124</v>
       </c>
     </row>
     <row r="8035" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>28.3802520528161</v>
+        <v>28.38025205281609</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64775,7 +64775,7 @@
         <v>8054</v>
       </c>
       <c r="B8054">
-        <v>59.30392111465468</v>
+        <v>59.30392111465467</v>
       </c>
     </row>
     <row r="8055" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>34.77156577891542</v>
+        <v>34.77156577891541</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>5.329082435607898</v>
+        <v>5.329082435607896</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>4.061438826402887</v>
+        <v>4.061438826402886</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>1.062597412417186</v>
+        <v>1.062597412417185</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>0.6768478568594155</v>
+        <v>0.6768478568594154</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>55.94998684111037</v>
+        <v>55.94998684111036</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>41.96498856143737</v>
+        <v>41.96498856143736</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>4.666385806921284</v>
+        <v>4.666385806921283</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>1.543629573446826</v>
+        <v>1.543629573446825</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>9.065970876944746</v>
+        <v>9.065970876944744</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>35.27538713218853</v>
+        <v>35.27538713218852</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>3.510554953457389</v>
+        <v>3.510554953457388</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>23.43957256175154</v>
+        <v>23.43957256175153</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>13.50153364074532</v>
+        <v>13.50153364074531</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>0.3071476597398349</v>
+        <v>0.3071476597398348</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>4.289226532776186</v>
+        <v>4.289226532776185</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>3.092348149637384</v>
+        <v>3.092348149637383</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>2.654409458926387</v>
+        <v>2.654409458926386</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>4.074578373350231</v>
+        <v>4.07457837335023</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>3.284371517949722</v>
+        <v>3.284371517949721</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>1.450085899121432</v>
+        <v>1.450085899121431</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>4.271113570302761</v>
+        <v>4.27111357030276</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>3.519418887021701</v>
+        <v>3.5194188870217</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>6.629191575262695</v>
+        <v>6.629191575262694</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>0.1095449720439536</v>
+        <v>0.1095449720439535</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>5.009313211466581</v>
+        <v>5.00931321146658</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>3.463695532014788</v>
+        <v>3.463695532014787</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>8.672561106776918</v>
+        <v>8.672561106776916</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>29.31964584123405</v>
+        <v>29.31964584123404</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>8.988142931917841</v>
+        <v>8.988142931917839</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>5.86148759342372</v>
+        <v>5.861487593423719</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>0.2884513598789265</v>
+        <v>0.2884513598789264</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>28.17571191351357</v>
+        <v>28.17571191351356</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>4.814325136527144</v>
+        <v>4.814325136527143</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>0.520046938257552</v>
+        <v>0.5200469382575519</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>6.028969486029597</v>
+        <v>6.028969486029596</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>5.064660556330892</v>
+        <v>5.064660556330891</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>9.256801153058696</v>
+        <v>9.256801153058694</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>8.481235540607631</v>
+        <v>8.48123554060763</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67935,7 +67935,7 @@
         <v>8449</v>
       </c>
       <c r="B8449">
-        <v>7.790091971553353</v>
+        <v>7.790091971553352</v>
       </c>
     </row>
     <row r="8450" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>8.733519882818477</v>
+        <v>8.733519882818475</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>4.414573602153721</v>
+        <v>4.41457360215372</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>5.733244102971097</v>
+        <v>5.733244102971096</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>5.063317118689668</v>
+        <v>5.063317118689667</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>3.914436151836589</v>
+        <v>3.914436151836588</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>4.058396162879506</v>
+        <v>4.058396162879505</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>0.278045315816282</v>
+        <v>0.2780453158162819</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>5.199984643077574</v>
+        <v>5.199984643077573</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>2.325831984718104</v>
+        <v>2.325831984718103</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>4.965703068629618</v>
+        <v>4.965703068629617</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>2.136462667731883</v>
+        <v>2.136462667731882</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>6.895625973362188</v>
+        <v>6.895625973362187</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69143,7 +69143,7 @@
         <v>8600</v>
       </c>
       <c r="B8600">
-        <v>2.722445021338503</v>
+        <v>2.722445021338502</v>
       </c>
     </row>
     <row r="8601" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>7.221632628419334</v>
+        <v>7.221632628419333</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>4.0894373680814</v>
+        <v>4.089437368081399</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>3.599005053130849</v>
+        <v>3.599005053130848</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>5.275014345827343</v>
+        <v>5.275014345827342</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>5.009481727313812</v>
+        <v>5.00948172731381</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69535,7 +69535,7 @@
         <v>8649</v>
       </c>
       <c r="B8649">
-        <v>0.3464199321130246</v>
+        <v>0.3464199321130245</v>
       </c>
     </row>
     <row r="8650" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>1.357496845090269</v>
+        <v>1.357496845090268</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>21.18988336358804</v>
+        <v>21.18988336358803</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>9.777565822289931</v>
+        <v>9.77756582228993</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>17.9015175804524</v>
+        <v>17.90151758045239</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>4.240142409079107</v>
+        <v>4.240142409079106</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>4.437702768524874</v>
+        <v>4.437702768524873</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>4.351712795071249</v>
+        <v>4.351712795071248</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>7.245361711206627</v>
+        <v>7.245361711206625</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>6.367978823859031</v>
+        <v>6.36797882385903</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>1.579971144225534</v>
+        <v>1.579971144225533</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>4.396666961691513</v>
+        <v>4.396666961691512</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>5.667851162114591</v>
+        <v>5.66785116211459</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>7.163195435594416</v>
+        <v>7.163195435594415</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>4.832919321646052</v>
+        <v>4.832919321646051</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>4.323425871490694</v>
+        <v>4.323425871490693</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>4.502925728178957</v>
+        <v>4.502925728178956</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
